--- a/Hardware/TransmitterPCB/V6/TX/BOM.xlsx
+++ b/Hardware/TransmitterPCB/V6/TX/BOM.xlsx
@@ -428,7 +428,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -470,7 +470,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -755,7 +755,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +767,7 @@
     <col min="5" max="5" width="27.42578125" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="153.42578125" bestFit="1" customWidth="1"/>
   </cols>
